--- a/admin/projects.xlsx
+++ b/admin/projects.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39340" yWindow="2220" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>project</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>collaborators_uni</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>tools</t>
   </si>
 </sst>
 </file>
@@ -91,8 +97,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -101,11 +113,17 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -447,9 +465,10 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,6 +492,12 @@
       </c>
       <c r="H1" t="s">
         <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
